--- a/biology/Botanique/Torreya_nucifera/Torreya_nucifera.xlsx
+++ b/biology/Botanique/Torreya_nucifera/Torreya_nucifera.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Torreya nucifera (nommé kaya par les Japonais) est un conifère de la classe des Pinopsida, à croissance lente originaire du Japon méridional.
 Il croît jusqu'à une hauteur de 15 m pour un tronc allant jusqu'à 1,5 m de diamètre. Les feuilles sont persistantes, en forme d'aiguille, longues de 2 à 3 cm et larges de 3 mm. Il est dioïque (à tendance monoïque) : un arbre ne produit quasiment que des cônes mâles ou femelles.
@@ -513,7 +525,9 @@
           <t>Intérêt économique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son bois est prisé pour la construction de gobans et de shōgiban de par sa couleur blonde, sa texture, et la qualité sonore du bruit de pierres à sa surface. Le manque de kaya a fait le succès du shin-kaya, meilleur marché.
 Les graines sont comestibles. Elles sont également pressées pour extraire leur huile végétale.
